--- a/data.xlsx
+++ b/data.xlsx
@@ -14,42 +14,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
-  <x:si>
-    <x:t>title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>author</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a blog for abcersdsdd two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>body newr ke two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new two</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34" count="34">
+  <x:si>
+    <x:t>styleNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>images</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diamondWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diamondCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>goldWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>designDetails</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>favouriteCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"main":"https://staticimg.titan.co.in/Tanishq/Catalog/500063ORAAAA02_1.jpg","white":"https://images-na.ssl-images-amazon.com/images/I/51pz29I-9aL._UY395_.jpg","yellow":"https://img.looksgud.com/upload/item-image/1074/n150/n150-pristine-fire-yellow-gold-and-diamond-nose-pin-for-women_500x500_0.jpg","rose":"https://staticimg.titan.co.in/Mia/Catalog/552818OWDAAA22_3.jpg?pView=pdp"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"new":"true","featured":"true","highestSelling":"true","fancyDiamond":"true"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
   </x:si>
   <x:si>
     <x:t>two</x:t>
   </x:si>
   <x:si>
-    <x:t>zz2 blog for abcersdsdd two</x:t>
-  </x:si>
-  <x:si>
-    <x:t> zz2body newr ke two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zz2 new two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zz two</x:t>
+    <x:t>daxy2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ten</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daxy10</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -412,7 +478,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -425,24 +491,48 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>9</x:v>
@@ -452,6 +542,226 @@
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
